--- a/medicine/Enfance/Elena_Odriozola/Elena_Odriozola.xlsx
+++ b/medicine/Enfance/Elena_Odriozola/Elena_Odriozola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elena Odriozola, née le 27 novembre 1967 à Saint-Sébastien, est une illustratrice basque  spécialisée en illustrations dans la littérature pour enfant et jeunesse.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elena Odriozola est née à Saint-Sébastien, dans la province espagnole du Guipuscoa.
 La peinture est sa passion et elle est née dans une famille d'artistes : son père et son grand-père sont peintres. Enfant, elle adore déjà peindre et dessiner.
-Après ses études en art et décoration, en 1989, elle commence à travailler dans une agence de publicité pendant 8 ans[1] en faisant ses premiers pas dans le monde de l’illustration[2].
-En 1995, elle publie son premier titre illustré, Agure jakagorria de l’auteur Jesus Mari Olaizola «Txiliku» chez l'éditeur basque Elkar. Depuis lors, elle a dépassé la centaine de titres illustrés publiés et traduits en plusieurs langues[3]. En 1997, elle vit exclusivement de son travail d'illustration[1].
-Elle obtient de nombreux grands prix graphiques pour ses ouvrages[4],[5], dont le prix Euskadi de littérature (illustration) en 2009 et 2013, le prix national d'illustration d'Espagne en 2015 et la Pomme d'Or de Bratislava à Biennale d'illustration de Bratislava la même année[6],[7].
-Elle est lauréate du Grand Prix de Bratislava à la Biennale d'illustration de Bratislava en 2021[7].
-En 2018[4], 2020[5] et 2022[8], elle est l'artiste sélectionnée pour représenter son pays, l'Espagne, pour le prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois. Elle est finaliste en 2020.
-En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren[9].
+Après ses études en art et décoration, en 1989, elle commence à travailler dans une agence de publicité pendant 8 ans en faisant ses premiers pas dans le monde de l’illustration.
+En 1995, elle publie son premier titre illustré, Agure jakagorria de l’auteur Jesus Mari Olaizola «Txiliku» chez l'éditeur basque Elkar. Depuis lors, elle a dépassé la centaine de titres illustrés publiés et traduits en plusieurs langues. En 1997, elle vit exclusivement de son travail d'illustration.
+Elle obtient de nombreux grands prix graphiques pour ses ouvrages dont le prix Euskadi de littérature (illustration) en 2009 et 2013, le prix national d'illustration d'Espagne en 2015 et la Pomme d'Or de Bratislava à Biennale d'illustration de Bratislava la même année,.
+Elle est lauréate du Grand Prix de Bratislava à la Biennale d'illustration de Bratislava en 2021.
+En 2018, 2020 et 2022, elle est l'artiste sélectionnée pour représenter son pays, l'Espagne, pour le prix Hans-Christian-Andersen, dans la catégorie Illustration, prix international danois. Elle est finaliste en 2020.
+En 2023, elle est sélectionnée pour la cinquième année d'affilée (depuis 2019) pour le prestigieux prix suédois, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -549,12 +563,14 @@
           <t>Technique d’illustration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En ce qui concerne la technique, Elena Odriozola utilise beaucoup l’acrylique. Ce sont des illustrations simples, avec des lignes bien définies et peu de couleurs[10]. L’utilisation du crayon et du caoutchouc est courante. Récemment parmi les matériaux utilisés, la peinture acrylique et le papier sumi-e se démarquent, ainsi que le cutter.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En ce qui concerne la technique, Elena Odriozola utilise beaucoup l’acrylique. Ce sont des illustrations simples, avec des lignes bien définies et peu de couleurs. L’utilisation du crayon et du caoutchouc est courante. Récemment parmi les matériaux utilisés, la peinture acrylique et le papier sumi-e se démarquent, ainsi que le cutter.
 Ses illustrations sont narratives et nous transmettent le point de vue et l’interprétation de l’auteur. Elle dessine d’une manière très personnelle et indubitable, transférant à ses personnages la sensibilité et l’innocence, non sans fermeté et force, c’est-à-dire son originalité. Sa principale compétence est qu’elle est capable de se réinventer tout en suivant un style très personnel et cohérent. Son travail a un grand potentiel narratif. Son style se caractérise principalement par son interprétation de chaque livre et ses illustrations qui racontent l’histoire.
-Certains personnages sont hiératiques tandis que d’autres sont très rapides et dynamiques. Beaucoup de ses personnages sont des femmes, avec leurs noms apparaissant dans le titre de la pièce[2]. Définissez les caractères avec leur propre style et marqués. Dans ses figures, l’amplitude du cou se démarque, une caractéristique qui est réaffirmée dans le cas des personnages enfants, qui sont à cou court, pour symboliser que lorsqu’ils grandissent, les anciens ont tendance à éloigner la tête du cœur.
-Parmi ses auteurs de référence, on peut citer entre autres : Nathalie Parain, Wolf Erlbruch, Sempé, Arthur Rackham, Lisbeth Zwerger et Czechka. Selon ses propres mots,« je dessine pour moi-même [...] si vous faites ce que vous pensez qui se passe bien »[11].
+Certains personnages sont hiératiques tandis que d’autres sont très rapides et dynamiques. Beaucoup de ses personnages sont des femmes, avec leurs noms apparaissant dans le titre de la pièce. Définissez les caractères avec leur propre style et marqués. Dans ses figures, l’amplitude du cou se démarque, une caractéristique qui est réaffirmée dans le cas des personnages enfants, qui sont à cou court, pour symboliser que lorsqu’ils grandissent, les anciens ont tendance à éloigner la tête du cœur.
+Parmi ses auteurs de référence, on peut citer entre autres : Nathalie Parain, Wolf Erlbruch, Sempé, Arthur Rackham, Lisbeth Zwerger et Czechka. Selon ses propres mots,« je dessine pour moi-même [...] si vous faites ce que vous pensez qui se passe bien ».
 </t>
         </is>
       </c>
@@ -585,8 +601,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ouvrages illustrés par l'auteur
-Agure jakagorria. Jesus Mari Olaizola "Txiliku" / Elena Odriozola (Elkar, 1995).
+          <t>Ouvrages illustrés par l'auteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agure jakagorria. Jesus Mari Olaizola "Txiliku" / Elena Odriozola (Elkar, 1995).
 Ahatetxoa eta sahats negartia. Mariasun Landa / Elena Odriozola (Elkar, 1997).
 Zergatik ez du kantatzen txantxagorriak?. Xabier Mendiguren Elizegi / Elena Odriozola (Elkar, 1997).
 Amona, zure Iholdi. Mariasun Landa / Elena Odriozola (Kometa, 1998).
@@ -647,9 +668,43 @@
 Ur: erori ez nahi duen tanta. Juan Kruz Igerabide / Elena Odriozola (Denonartean, 2014).
 Mundua baloi batean. Patxi Zubizarreta / Elena Odriozola (Elkar, 2014).
 Elsa eta paradisua. Mariasun Landa / Elena Odriozola (Giltza, 2015).
-Azken balada. Mariasun Landa / Elena Odriozola (Erein, 2016)
-Ouvrages traduits en français
-Livres de littérature d'enfance et de jeunesse, illustrés par Elena Odriozola et traduits en français[12] 
+Azken balada. Mariasun Landa / Elena Odriozola (Erein, 2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Livres de littérature d'enfance et de jeunesse, illustrés par Elena Odriozola et traduits en français 
 Les Secrets d’Iholdi Mariasun Landa (La Joie de lire, 2014)
 Le Fil d’Ariane, Javier Sobrino (Autrement, 2010)
 Un secret de la forêt, Javier Sobrino (OQO, 2009)
@@ -658,16 +713,85 @@
 La Colle de petits pois, Susan Chandler (Faribole, 2007)
 L’Histoire de Noé, Stephanie Rosenheim (Faribole, 2007)
 Dix amis, Inès Rosales (Saragosse Imaginarium, 2003)
-Marguerite, Rubén Dario (Saragosse Imaginarium, 2003)
-Ouvrages traduits en anglais
-Frankenstein or The Modern Prometheus = Spanish edition: Frankenstein, Nórdica, 2013)
+Marguerite, Rubén Dario (Saragosse Imaginarium, 2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages traduits en anglais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frankenstein or The Modern Prometheus = Spanish edition: Frankenstein, Nórdica, 2013)
 What I do with vegetable glue by Susan Chandler (Sky Pony Press, 2012)
 A woodland secret by Javier Sobrino (OQO; Perth : Roundabout [distributor], 2009)
 The story blanket by Ferida Wolff; Harriet May Savitz (Sky Pony Press, 2012)
 The story of Noah by Stephanie Rosenheim (Peachtree, 2008.)
 The Opposite by Tom MacRae (Peachtree, 2006)
-Supersonic tonic by Stephanie Rosenheim (Hamilton)
-Autres ouvrages
+Supersonic tonic by Stephanie Rosenheim (Hamilton)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Elena_Odriozola</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Autres publications
 Agure jakagorria, Jesus Mari Olaizola Txiliku, Elkar, 1995.
 Ahatetxoa eta sahats negartia, Mariasun Landa, Elkar, 1997.
@@ -747,44 +871,46 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Elena_Odriozola</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Elena_Odriozola</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(international) « Honour List » 2006[13] de l' IBBY, catégorie Illustration, pour Atxiki sekretua
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(international) « Honour List » 2006 de l' IBBY, catégorie Illustration, pour Atxiki sekretua
 Prix de l’illustration littéraire basque (2013 et 2009)
-Prix Junceda de l’illustration[1] (2014) pour Frankenstein
-(international) « Honour List » 2014[14] de l' IBBY, catégorie Illustration, pour Eguberria
-Prix national de l’illustration d’Espagne[1] (2015)
+Prix Junceda de l’illustration (2014) pour Frankenstein
+(international) « Honour List » 2014 de l' IBBY, catégorie Illustration, pour Eguberria
+Prix national de l’illustration d’Espagne (2015)
 Prix Mikel Zarate de littérature jeunesse (2015)
- Pomme d'Or de Bratislava[7] à Biennale d'illustration de Bratislava  2015 pour Frankenstein
- Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, 2018[4], 2020[5] et 2022[5]
- Finaliste du Prix Hans-Christian-Andersen 2020, dans la catégorie Illustration[5]
- Grand Prix de Bratislava à la Biennale d'illustration de Bratislava 2021[7] pour Sentimientos encontrados (Mixed Feelings)
-(international) « Honour List » 2022[15] de l' IBBY, catégorie Illustration, pour Etxean Barrena 
- Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée, de 2019 à 2023[9]</t>
+ Pomme d'Or de Bratislava à Biennale d'illustration de Bratislava  2015 pour Frankenstein
+ Sélection pour le Prix Hans-Christian-Andersen, dans la catégorie Illustration, 2018, 2020 et 2022
+ Finaliste du Prix Hans-Christian-Andersen 2020, dans la catégorie Illustration
+ Grand Prix de Bratislava à la Biennale d'illustration de Bratislava 2021 pour Sentimientos encontrados (Mixed Feelings)
+(international) « Honour List » 2022 de l' IBBY, catégorie Illustration, pour Etxean Barrena 
+ Sélection pour le Prix commémoratif Astrid-Lindgren durant cinq années d'affilée, de 2019 à 2023</t>
         </is>
       </c>
     </row>
